--- a/Calculs/PH4/DataBase_PH4_FileA_V1_results.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_V1_results.xlsx
@@ -766,7 +766,7 @@
         <v>23.51232</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.49357735585264</v>
+        <v>2.493577355852641</v>
       </c>
       <c r="AF2" t="n">
         <v>3.638949243332875</v>
@@ -796,13 +796,13 @@
         <v>5.499690845535227</v>
       </c>
       <c r="AO2" t="n">
-        <v>-352.0762363103744</v>
+        <v>-352.0762363103743</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-364.8937016248078</v>
+        <v>-364.8937016248076</v>
       </c>
       <c r="AR2" t="n">
         <v>38.13888</v>
@@ -955,7 +955,7 @@
         <v>105.05</v>
       </c>
       <c r="AS3" t="n">
-        <v>11.33009045945918</v>
+        <v>11.33009045945917</v>
       </c>
       <c r="AT3" t="n">
         <v>-355.9377605579326</v>
@@ -1102,10 +1102,10 @@
         <v>40.09472</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.991985829440042</v>
+        <v>4.991985829440047</v>
       </c>
       <c r="AT4" t="n">
-        <v>-260.5146970415208</v>
+        <v>-260.5146970415207</v>
       </c>
       <c r="AU4" t="n">
         <v>74.70889227763416</v>
@@ -1207,16 +1207,16 @@
         <v>32.1255</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.496715083444574</v>
+        <v>7.496715083444567</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.535117280040426</v>
+        <v>5.535117280040419</v>
       </c>
       <c r="AG5" t="n">
-        <v>-227.436941620864</v>
+        <v>-227.4369416208639</v>
       </c>
       <c r="AH5" t="n">
-        <v>-167.9255689555639</v>
+        <v>-167.925568955564</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>24.1152</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.557515236771938</v>
+        <v>2.557515236771946</v>
       </c>
       <c r="AF6" t="n">
         <v>3.428604519469189</v>
@@ -1396,7 +1396,7 @@
         <v>39.1168</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.785503516481082</v>
+        <v>4.785503516481079</v>
       </c>
       <c r="AT6" t="n">
         <v>-332.3735469549238</v>
@@ -1501,7 +1501,7 @@
         <v>77.715</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.329683426049533</v>
+        <v>8.329683426049526</v>
       </c>
       <c r="AF7" t="n">
         <v>10.11428068073687</v>
@@ -1690,7 +1690,7 @@
         <v>68.45439999999999</v>
       </c>
       <c r="AS8" t="n">
-        <v>10.909282027547</v>
+        <v>10.90928202754699</v>
       </c>
       <c r="AT8" t="n">
         <v>-436.7144597097943</v>
@@ -1831,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-665.3954329157008</v>
+        <v>-665.3954329157004</v>
       </c>
       <c r="AR9" t="n">
         <v>92.444</v>
       </c>
       <c r="AS9" t="n">
-        <v>10.15671636660574</v>
+        <v>10.15671636660573</v>
       </c>
       <c r="AT9" t="n">
         <v>-424.5209543560929</v>
@@ -1942,13 +1942,13 @@
         <v>1.777152</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.665575064027908</v>
+        <v>1.665575064027911</v>
       </c>
       <c r="AF10" t="n">
         <v>0.4134653417236674</v>
       </c>
       <c r="AG10" t="n">
-        <v>-109.7952510770359</v>
+        <v>-109.7952510770358</v>
       </c>
       <c r="AH10" t="n">
         <v>-23.42092314839613</v>
@@ -1987,7 +1987,7 @@
         <v>1.591225928576793</v>
       </c>
       <c r="AT10" t="n">
-        <v>-144.7506290218388</v>
+        <v>-144.7506290218389</v>
       </c>
       <c r="AU10" t="n">
         <v>25.25707130434771</v>
@@ -2089,13 +2089,13 @@
         <v>5.874</v>
       </c>
       <c r="AE11" t="n">
-        <v>3.109558774843754</v>
+        <v>3.109558774843757</v>
       </c>
       <c r="AF11" t="n">
         <v>0.9445417438945203</v>
       </c>
       <c r="AG11" t="n">
-        <v>-86.18869090114853</v>
+        <v>-86.18869090114855</v>
       </c>
       <c r="AH11" t="n">
         <v>-26.18018256041713</v>
@@ -2239,13 +2239,13 @@
         <v>1.921817381570665</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.583754377428474</v>
+        <v>0.5837543774284725</v>
       </c>
       <c r="AG12" t="n">
         <v>-126.6868281658106</v>
       </c>
       <c r="AH12" t="n">
-        <v>-38.48170320437851</v>
+        <v>-38.48170320437853</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>21.538</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.40171550776045</v>
+        <v>11.40171550776043</v>
       </c>
       <c r="AF13" t="n">
         <v>3.155655107184544</v>
@@ -2392,13 +2392,13 @@
         <v>-316.0251999708781</v>
       </c>
       <c r="AH13" t="n">
-        <v>-80.7537712621285</v>
+        <v>-80.75377126212847</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-87.68166460834941</v>
+        <v>-87.68166460834939</v>
       </c>
       <c r="AK13" t="n">
         <v>121</v>
@@ -2419,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-665.3954329157008</v>
+        <v>-665.3954329157004</v>
       </c>
       <c r="AR13" t="n">
         <v>92.444</v>
       </c>
       <c r="AS13" t="n">
-        <v>10.15671636660574</v>
+        <v>10.15671636660573</v>
       </c>
       <c r="AT13" t="n">
         <v>-424.5209543560929</v>
@@ -2533,13 +2533,13 @@
         <v>8.802121027587839</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.213297124328229</v>
+        <v>2.213297124328233</v>
       </c>
       <c r="AG14" t="n">
-        <v>-404.4442731001347</v>
+        <v>-404.4442731001348</v>
       </c>
       <c r="AH14" t="n">
-        <v>-86.15197546684658</v>
+        <v>-86.15197546684657</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>107.9564542421578</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.177153109214244</v>
+        <v>9.17715310921424</v>
       </c>
       <c r="AO14" t="n">
         <v>-435.4326783949165</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-651.4881543681898</v>
+        <v>-651.4881543681902</v>
       </c>
       <c r="AR14" t="n">
         <v>55.74144</v>
@@ -2677,13 +2677,13 @@
         <v>28.391</v>
       </c>
       <c r="AE15" t="n">
-        <v>12.99370797961613</v>
+        <v>12.99370797961612</v>
       </c>
       <c r="AF15" t="n">
         <v>3.585038060347737</v>
       </c>
       <c r="AG15" t="n">
-        <v>-296.427793029741</v>
+        <v>-296.4277930297411</v>
       </c>
       <c r="AH15" t="n">
         <v>-76.31927991067319</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-635.9910063461439</v>
+        <v>-635.9910063461448</v>
       </c>
       <c r="AR15" t="n">
         <v>121.858</v>
@@ -2851,7 +2851,7 @@
         <v>87.0070898773281</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.280569330321651</v>
+        <v>6.280569330321656</v>
       </c>
       <c r="AO16" t="n">
         <v>-406.4318349903529</v>
@@ -3013,10 +3013,10 @@
         <v>36.18304</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.444648368310663</v>
+        <v>4.444648368310659</v>
       </c>
       <c r="AT17" t="n">
-        <v>-307.3933331589693</v>
+        <v>-307.3933331589694</v>
       </c>
       <c r="AU17" t="n">
         <v>56.86374264883423</v>
@@ -3118,7 +3118,7 @@
         <v>77.715</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.329683426049533</v>
+        <v>8.329683426049526</v>
       </c>
       <c r="AF18" t="n">
         <v>11.37117563626099</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-190.4522786784644</v>
+        <v>-190.4522786784643</v>
       </c>
       <c r="AK19" t="n">
         <v>96</v>
@@ -3307,10 +3307,10 @@
         <v>73.34399999999999</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.831188389844293</v>
+        <v>7.831188389844298</v>
       </c>
       <c r="AT19" t="n">
-        <v>-362.0044774989597</v>
+        <v>-362.0044774989596</v>
       </c>
       <c r="AU19" t="n">
         <v>97.15351708232025</v>
@@ -3412,22 +3412,22 @@
         <v>39.2645</v>
       </c>
       <c r="AE20" t="n">
-        <v>14.89013350096086</v>
+        <v>14.89013350096085</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.342710364842731</v>
+        <v>7.342710364842732</v>
       </c>
       <c r="AG20" t="n">
-        <v>-401.7630434958108</v>
+        <v>-401.7630434958109</v>
       </c>
       <c r="AH20" t="n">
-        <v>-154.0415011280214</v>
+        <v>-154.0415011280215</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-238.3457218806207</v>
+        <v>-238.3457218806208</v>
       </c>
       <c r="AK20" t="n">
         <v>121</v>
@@ -3559,7 +3559,7 @@
         <v>0.6379519999999999</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5979027869104363</v>
+        <v>0.5979027869104362</v>
       </c>
       <c r="AF21" t="n">
         <v>0.1484202634409113</v>
@@ -3586,16 +3586,16 @@
         <v>54.76274042434937</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.6224919026573055</v>
+        <v>0.6224919026573091</v>
       </c>
       <c r="AO21" t="n">
-        <v>-47.65372752960639</v>
+        <v>-47.65372752960637</v>
       </c>
       <c r="AP21" t="n">
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-50.12936202686662</v>
+        <v>-50.12936202686661</v>
       </c>
       <c r="AR21" t="n">
         <v>2.738176</v>
@@ -3709,7 +3709,7 @@
         <v>3.613198426782055</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.804673487352945</v>
+        <v>0.804673487352944</v>
       </c>
       <c r="AG22" t="n">
         <v>-121.3974375236764</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-27.12049253787867</v>
+        <v>-27.12049253787868</v>
       </c>
       <c r="AK22" t="n">
         <v>33</v>
@@ -3733,10 +3733,10 @@
         <v>197.268015027421</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.359046575040526</v>
+        <v>3.359046575040522</v>
       </c>
       <c r="AO22" t="n">
-        <v>-122.125348176831</v>
+        <v>-122.1253481768311</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -3856,19 +3856,19 @@
         <v>1.622868011104113</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.4028636662948548</v>
+        <v>0.4028636662948565</v>
       </c>
       <c r="AG23" t="n">
         <v>-106.9799882289067</v>
       </c>
       <c r="AH23" t="n">
-        <v>-22.82038665741162</v>
+        <v>-22.82038665741161</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-23.8225973163598</v>
+        <v>-23.82259731635979</v>
       </c>
       <c r="AK23" t="n">
         <v>9.728</v>
@@ -3895,7 +3895,7 @@
         <v>7.432192</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.551082919378423</v>
+        <v>1.551082919378427</v>
       </c>
       <c r="AT23" t="n">
         <v>-141.0370580091802</v>
@@ -4000,7 +4000,7 @@
         <v>21.538</v>
       </c>
       <c r="AE24" t="n">
-        <v>21.75704653924924</v>
+        <v>21.75704653924922</v>
       </c>
       <c r="AF24" t="n">
         <v>5.073579907939419</v>
@@ -4147,22 +4147,22 @@
         <v>17.088</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.680272966562086</v>
+        <v>9.6802729665621</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.316246672997175</v>
+        <v>2.316246672997177</v>
       </c>
       <c r="AG25" t="n">
         <v>-358.293786295468</v>
       </c>
       <c r="AH25" t="n">
-        <v>-69.31607483487772</v>
+        <v>-69.31607483487774</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-73.57069455546674</v>
+        <v>-73.57069455546676</v>
       </c>
       <c r="AK25" t="n">
         <v>96</v>
@@ -4174,7 +4174,7 @@
         <v>188.8910975819768</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.987234136415639</v>
+        <v>8.987234136415641</v>
       </c>
       <c r="AO25" t="n">
         <v>-396.6580514282147</v>
@@ -4300,7 +4300,7 @@
         <v>4.013079283293444</v>
       </c>
       <c r="AG26" t="n">
-        <v>-324.231891179431</v>
+        <v>-324.2318911794309</v>
       </c>
       <c r="AH26" t="n">
         <v>-80.765831092532</v>
@@ -4321,7 +4321,7 @@
         <v>186.5951698893792</v>
       </c>
       <c r="AN26" t="n">
-        <v>14.89478858771067</v>
+        <v>14.89478858771068</v>
       </c>
       <c r="AO26" t="n">
         <v>-435.3451015598433</v>
@@ -4330,16 +4330,16 @@
         <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-877.205788985942</v>
+        <v>-877.2057889859421</v>
       </c>
       <c r="AR26" t="n">
         <v>121.858</v>
       </c>
       <c r="AS26" t="n">
-        <v>13.7936448680513</v>
+        <v>13.79364486805129</v>
       </c>
       <c r="AT26" t="n">
-        <v>-435.2899654962274</v>
+        <v>-435.2899654962273</v>
       </c>
       <c r="AU26" t="n">
         <v>128.9402449739936</v>
@@ -4441,16 +4441,16 @@
         <v>8.43008</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.731403188028096</v>
+        <v>4.731403188028088</v>
       </c>
       <c r="AF27" t="n">
         <v>1.304710629286917</v>
       </c>
       <c r="AG27" t="n">
-        <v>-232.1598007510398</v>
+        <v>-232.1598007510399</v>
       </c>
       <c r="AH27" t="n">
-        <v>-58.56086474326035</v>
+        <v>-58.56086474326037</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
@@ -4483,10 +4483,10 @@
         <v>36.18304</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.444648368310663</v>
+        <v>4.444648368310659</v>
       </c>
       <c r="AT27" t="n">
-        <v>-307.3933331589693</v>
+        <v>-307.3933331589694</v>
       </c>
       <c r="AU27" t="n">
         <v>56.86374264883423</v>
@@ -4735,7 +4735,7 @@
         <v>77.715</v>
       </c>
       <c r="AE29" t="n">
-        <v>8.329683426049533</v>
+        <v>8.329683426049526</v>
       </c>
       <c r="AF29" t="n">
         <v>11.37117563626099</v>
@@ -4885,10 +4885,10 @@
         <v>5.291882555053946</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.04608748192421</v>
+        <v>7.046087481924209</v>
       </c>
       <c r="AG30" t="n">
-        <v>-195.8672698415225</v>
+        <v>-195.8672698415224</v>
       </c>
       <c r="AH30" t="n">
         <v>-220.4980316551801</v>
@@ -5176,7 +5176,7 @@
         <v>0.6379519999999999</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.5979027869104363</v>
+        <v>0.5979027869104362</v>
       </c>
       <c r="AF32" t="n">
         <v>0.1164864337540001</v>
@@ -5353,7 +5353,7 @@
         <v>4.507887030612564</v>
       </c>
       <c r="AO33" t="n">
-        <v>-211.6006291770657</v>
+        <v>-211.6006291770658</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>1.324079166509825</v>
       </c>
       <c r="AO34" t="n">
-        <v>-80.9218653661209</v>
+        <v>-80.92186536612091</v>
       </c>
       <c r="AP34" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>7.432192</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.551082919378423</v>
+        <v>1.551082919378427</v>
       </c>
       <c r="AT34" t="n">
         <v>-141.0370580091802</v>
@@ -5617,7 +5617,7 @@
         <v>27.412</v>
       </c>
       <c r="AE35" t="n">
-        <v>16.036896103707</v>
+        <v>16.03689610370702</v>
       </c>
       <c r="AF35" t="n">
         <v>3.962242824336876</v>
@@ -5764,13 +5764,13 @@
         <v>17.31584</v>
       </c>
       <c r="AE36" t="n">
-        <v>11.73616137011711</v>
+        <v>11.73616137011712</v>
       </c>
       <c r="AF36" t="n">
         <v>2.738148775076242</v>
       </c>
       <c r="AG36" t="n">
-        <v>-539.2590308001794</v>
+        <v>-539.2590308001795</v>
       </c>
       <c r="AH36" t="n">
         <v>-100.000673398829</v>
@@ -5911,13 +5911,13 @@
         <v>28.391</v>
       </c>
       <c r="AE37" t="n">
-        <v>12.99370797961613</v>
+        <v>12.99370797961612</v>
       </c>
       <c r="AF37" t="n">
         <v>3.585038060347737</v>
       </c>
       <c r="AG37" t="n">
-        <v>-296.427793029741</v>
+        <v>-296.4277930297411</v>
       </c>
       <c r="AH37" t="n">
         <v>-76.31927991067319</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>-635.9910063461439</v>
+        <v>-635.9910063461448</v>
       </c>
       <c r="AR37" t="n">
         <v>121.858</v>
@@ -6061,19 +6061,19 @@
         <v>4.475651664350896</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.234182080405836</v>
+        <v>1.234182080405835</v>
       </c>
       <c r="AG38" t="n">
-        <v>-219.6106223320647</v>
+        <v>-219.6106223320648</v>
       </c>
       <c r="AH38" t="n">
-        <v>-55.3954361607945</v>
+        <v>-55.39543616079452</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-56.85919448832975</v>
+        <v>-56.85919448832978</v>
       </c>
       <c r="AK38" t="n">
         <v>44.8</v>
@@ -6100,10 +6100,10 @@
         <v>34.2272</v>
       </c>
       <c r="AS38" t="n">
-        <v>4.215711490333191</v>
+        <v>4.215711490333187</v>
       </c>
       <c r="AT38" t="n">
-        <v>-290.7448271287789</v>
+        <v>-290.744827128779</v>
       </c>
       <c r="AU38" t="n">
         <v>56.86374264883423</v>
@@ -6214,13 +6214,13 @@
         <v>-103.5307219565448</v>
       </c>
       <c r="AH39" t="n">
-        <v>-138.2040753394721</v>
+        <v>-138.204075339472</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-141.8559496931817</v>
+        <v>-141.8559496931816</v>
       </c>
       <c r="AK39" t="n">
         <v>42.24</v>
@@ -6232,7 +6232,7 @@
         <v>87.0070898773281</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.699534731862885</v>
+        <v>4.69953473186288</v>
       </c>
       <c r="AO39" t="n">
         <v>-297.787802881396</v>
@@ -6241,16 +6241,16 @@
         <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-308.5769847369084</v>
+        <v>-308.5769847369083</v>
       </c>
       <c r="AR39" t="n">
         <v>32.27136</v>
       </c>
       <c r="AS39" t="n">
-        <v>3.985427171283381</v>
+        <v>3.985427171283379</v>
       </c>
       <c r="AT39" t="n">
-        <v>-274.1002508132449</v>
+        <v>-274.1002508132448</v>
       </c>
       <c r="AU39" t="n">
         <v>56.86374264883423</v>
@@ -6352,7 +6352,7 @@
         <v>77.715</v>
       </c>
       <c r="AE40" t="n">
-        <v>8.329683426049533</v>
+        <v>8.329683426049526</v>
       </c>
       <c r="AF40" t="n">
         <v>11.37117563626099</v>
@@ -6505,7 +6505,7 @@
         <v>7.475726962529347</v>
       </c>
       <c r="AG41" t="n">
-        <v>-207.8103960513713</v>
+        <v>-207.8103960513714</v>
       </c>
       <c r="AH41" t="n">
         <v>-233.9430335853741</v>
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>-863.3284805911219</v>
+        <v>-863.3284805911218</v>
       </c>
       <c r="AR42" t="n">
         <v>121.858</v>
@@ -6793,7 +6793,7 @@
         <v>0.6379519999999999</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.5979027869104363</v>
+        <v>0.5979027869104362</v>
       </c>
       <c r="AF43" t="n">
         <v>0.1164864337540001</v>
@@ -6940,7 +6940,7 @@
         <v>5.874</v>
       </c>
       <c r="AE44" t="n">
-        <v>3.148155641020786</v>
+        <v>3.148155641020783</v>
       </c>
       <c r="AF44" t="n">
         <v>0.9562657066581908</v>
@@ -6982,7 +6982,7 @@
         <v>25.212</v>
       </c>
       <c r="AS44" t="n">
-        <v>3.073551382271073</v>
+        <v>3.073551382271074</v>
       </c>
       <c r="AT44" t="n">
         <v>-118.1963788943083</v>
@@ -7117,7 +7117,7 @@
         <v>1.324079166509825</v>
       </c>
       <c r="AO45" t="n">
-        <v>-80.9218653661209</v>
+        <v>-80.92186536612091</v>
       </c>
       <c r="AP45" t="n">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>7.432192</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.551082919378423</v>
+        <v>1.551082919378427</v>
       </c>
       <c r="AT45" t="n">
         <v>-141.0370580091802</v>
@@ -7531,19 +7531,19 @@
         <v>12.69814236405387</v>
       </c>
       <c r="AF48" t="n">
-        <v>3.52408754988571</v>
+        <v>3.524087549885708</v>
       </c>
       <c r="AG48" t="n">
         <v>-280.6804815796623</v>
       </c>
       <c r="AH48" t="n">
-        <v>-72.83015215353882</v>
+        <v>-72.8301521535388</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>-93.38195896001423</v>
+        <v>-93.38195896001419</v>
       </c>
       <c r="AK48" t="n">
         <v>159.5</v>
@@ -7678,19 +7678,19 @@
         <v>3.452645569642119</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.9520871779695856</v>
+        <v>0.952087177969584</v>
       </c>
       <c r="AG49" t="n">
         <v>-169.4139086561642</v>
       </c>
       <c r="AH49" t="n">
-        <v>-42.73359726728079</v>
+        <v>-42.73359726728081</v>
       </c>
       <c r="AI49" t="n">
         <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>-43.86278593888547</v>
+        <v>-43.86278593888548</v>
       </c>
       <c r="AK49" t="n">
         <v>34.56</v>
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" t="n">
-        <v>-252.3442113794662</v>
+        <v>-252.3442113794661</v>
       </c>
       <c r="AR49" t="n">
         <v>26.40384</v>
@@ -7822,7 +7822,7 @@
         <v>23.51232</v>
       </c>
       <c r="AE50" t="n">
-        <v>2.49357735585264</v>
+        <v>2.493577355852641</v>
       </c>
       <c r="AF50" t="n">
         <v>3.342889406482461</v>
@@ -8014,7 +8014,7 @@
         <v>11.65656566404918</v>
       </c>
       <c r="AT51" t="n">
-        <v>-295.1478165121887</v>
+        <v>-295.1478165121886</v>
       </c>
       <c r="AU51" t="n">
         <v>170.00193715411</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-490.5259850416677</v>
+        <v>-490.5259850416678</v>
       </c>
       <c r="AR52" t="n">
         <v>66.49856</v>
@@ -8161,7 +8161,7 @@
         <v>7.958412263212965</v>
       </c>
       <c r="AT52" t="n">
-        <v>-433.0153399885537</v>
+        <v>-433.0153399885535</v>
       </c>
       <c r="AU52" t="n">
         <v>74.70889227763416</v>
@@ -8263,13 +8263,13 @@
         <v>16.4197</v>
       </c>
       <c r="AE53" t="n">
-        <v>6.330986947101279</v>
+        <v>6.330986947101264</v>
       </c>
       <c r="AF53" t="n">
-        <v>2.998143791761391</v>
+        <v>2.99814379176139</v>
       </c>
       <c r="AG53" t="n">
-        <v>-417.3407229941416</v>
+        <v>-417.3407229941418</v>
       </c>
       <c r="AH53" t="n">
         <v>-135.5492471235306</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>-142.1727073735055</v>
+        <v>-142.1727073735054</v>
       </c>
       <c r="AK53" t="n">
         <v>50.6</v>
@@ -8410,7 +8410,7 @@
         <v>17.088</v>
       </c>
       <c r="AE54" t="n">
-        <v>9.692722532130357</v>
+        <v>9.692722532130356</v>
       </c>
       <c r="AF54" t="n">
         <v>2.944205820339934</v>
@@ -8455,7 +8455,7 @@
         <v>8.784713542979587</v>
       </c>
       <c r="AT54" t="n">
-        <v>-393.6760083324812</v>
+        <v>-393.6760083324813</v>
       </c>
       <c r="AU54" t="n">
         <v>89.00659508617929</v>
@@ -8560,7 +8560,7 @@
         <v>2.74932887952984</v>
       </c>
       <c r="AF55" t="n">
-        <v>3.685749858429376</v>
+        <v>3.685749858429373</v>
       </c>
       <c r="AG55" t="n">
         <v>-134.9036680039826</v>
@@ -8854,7 +8854,7 @@
         <v>3.936644339735257</v>
       </c>
       <c r="AF57" t="n">
-        <v>5.880974827427208</v>
+        <v>5.880974827427215</v>
       </c>
       <c r="AG57" t="n">
         <v>-145.7061397601569</v>
